--- a/data/case1/5/Qlm2_6.xlsx
+++ b/data/case1/5/Qlm2_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11557672930211993</v>
+        <v>-0.11652979150694165</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11532077140856245</v>
+        <v>0.11627350975892625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.080148859583280441</v>
+        <v>-0.080671922830028109</v>
       </c>
       <c r="B2" s="0">
-        <v>0.079672855380017005</v>
+        <v>0.080194777342267543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.029964242013400977</v>
+        <v>-0.030486186174840668</v>
       </c>
       <c r="B3" s="0">
-        <v>0.029924675394482847</v>
+        <v>0.030446321509039365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.021924675469557897</v>
+        <v>-0.022446321585553264</v>
       </c>
       <c r="B4" s="0">
-        <v>0.021763500878547504</v>
+        <v>0.022284987456822947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.018763500912519326</v>
+        <v>-0.019284987491439587</v>
       </c>
       <c r="B5" s="0">
-        <v>0.018236397132985971</v>
+        <v>0.01875732542830022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.02003330414753357</v>
+        <v>0.019242579603979237</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.020389431465456909</v>
+        <v>-0.019596129711302979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.030389431371392828</v>
+        <v>0.029596129615176991</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.030482112961443875</v>
+        <v>-0.02968768671061861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.040482112870641185</v>
+        <v>0.039687686617746021</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.040690125910534558</v>
+        <v>-0.039891750794694758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.020468871725912052</v>
+        <v>-0.02043409844034727</v>
       </c>
       <c r="B9" s="0">
-        <v>0.020428302498467499</v>
+        <v>0.020393057470009968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.018428302516914741</v>
+        <v>-0.018393057489367592</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01842828203937863</v>
+        <v>0.018393043613139426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.015428282066403121</v>
+        <v>-0.015393043641231507</v>
       </c>
       <c r="B11" s="0">
-        <v>0.015426326616830188</v>
+        <v>0.015391105400110128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.011926326648444174</v>
+        <v>-0.011891105432931148</v>
       </c>
       <c r="B12" s="0">
-        <v>0.011914278697693348</v>
+        <v>0.011878947950768382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0084142787311387579</v>
+        <v>-0.0083789479854834426</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0084112379482288446</v>
+        <v>0.0083759907699754166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.00041123801978759644</v>
+        <v>-0.00037599084356099155</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00040513729870816917</v>
+        <v>0.00037016562469549541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080509915774058527</v>
+        <v>-0.0080509891947926349</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080333007753461416</v>
+        <v>0.0080333049102767617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060333007967141583</v>
+        <v>-0.006033304932712813</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032055207988044</v>
+        <v>0.0060031916663176865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032055429541913</v>
+        <v>-0.0040031916895779673</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999607234216</v>
+        <v>0.0039999999592765789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.029171911876808565</v>
+        <v>-0.029601586981524264</v>
       </c>
       <c r="B18" s="0">
-        <v>0.029047005491829481</v>
+        <v>0.029476690617251222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091349972175536</v>
+        <v>-0.0120913220402179</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016343039088273</v>
+        <v>0.012016310556234533</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080163430773154687</v>
+        <v>-0.0080163105952077984</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056522539599939</v>
+        <v>0.008005648986845415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056522926148475</v>
+        <v>-0.0040056490262330158</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999609818815</v>
+        <v>0.0039999999602189362</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045708613406882037</v>
+        <v>-0.045708591208395433</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045496592310675155</v>
+        <v>0.045496592296590421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040496592362403661</v>
+        <v>-0.040496592349231086</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098437257887198</v>
+        <v>0.040098432971013231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098437441823158</v>
+        <v>-0.020098433158388218</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999981337286</v>
+        <v>0.019999999809908076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.03626970130834728</v>
+        <v>-0.035999905060775106</v>
       </c>
       <c r="B25" s="0">
-        <v>0.036262636768862322</v>
+        <v>0.035992999466225584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.03376263680109659</v>
+        <v>-0.033492999499245002</v>
       </c>
       <c r="B26" s="0">
-        <v>0.033753799303694265</v>
+        <v>0.033484385638956837</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.03125379933684691</v>
+        <v>-0.03098438567292483</v>
       </c>
       <c r="B27" s="0">
-        <v>0.031193587593719929</v>
+        <v>0.030925264296245203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.069446662551122529</v>
+        <v>-0.069391019104619645</v>
       </c>
       <c r="B28" s="0">
-        <v>0.069047483716115465</v>
+        <v>0.068991985908661846</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062047483801647374</v>
+        <v>-0.061991985995866195</v>
       </c>
       <c r="B29" s="0">
-        <v>0.061939731275610477</v>
+        <v>0.061884307371317782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021163373389549101</v>
+        <v>-0.021163339316652596</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02102151440525768</v>
+        <v>0.021021472146207643</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021514498439913</v>
+        <v>-0.014021472241198651</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000965058045267</v>
+        <v>0.01400095949651714</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009651770898103</v>
+        <v>-0.0040009596178833817</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999314641599</v>
+        <v>0.0039999999301283395</v>
       </c>
     </row>
   </sheetData>
